--- a/data/case1/11/Plm2_13.xlsx
+++ b/data/case1/11/Plm2_13.xlsx
@@ -57,263 +57,263 @@
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.7109375" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.095708695876098204</v>
+        <v>-0.092826440534025778</v>
       </c>
       <c r="B1" s="0">
-        <v>0.095612405700677527</v>
+        <v>0.092701678350678662</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.049502143998688908</v>
+        <v>0.0012287138923614549</v>
       </c>
       <c r="B2" s="0">
-        <v>0.0492623808094379</v>
+        <v>-0.0017718058254860836</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.05367040220303565</v>
+        <v>0.10554578879861864</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.053747394088947686</v>
+        <v>-0.10596545026620063</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.23024635894127599</v>
+        <v>-0.1780311985376315</v>
       </c>
       <c r="B4" s="0">
-        <v>0.2289755174331134</v>
+        <v>0.1771367691936554</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0">
-        <v>-0.18258804364620129</v>
+        <v>-0.17113676938005806</v>
       </c>
       <c r="B5" s="0">
-        <v>0.18078980626815877</v>
+        <v>0.16934434904417195</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0">
-        <v>-0.10838810650147535</v>
+        <v>-0.095578244970149662</v>
       </c>
       <c r="B6" s="0">
-        <v>0.10821665693108518</v>
+        <v>0.09545330253978257</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0">
-        <v>-0.089202248609822732</v>
+        <v>-0.075453302766618435</v>
       </c>
       <c r="B7" s="0">
-        <v>0.088751454234017757</v>
+        <v>0.07516377864235757</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="0">
-        <v>-0.068751454715806126</v>
+        <v>-0.055163778871374802</v>
       </c>
       <c r="B8" s="0">
-        <v>0.068361635344865945</v>
+        <v>0.054945556012992114</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="0">
-        <v>-0.062361635758874989</v>
+        <v>-0.048945556211484664</v>
       </c>
       <c r="B9" s="0">
-        <v>0.06202970386056883</v>
+        <v>0.048770910545306023</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="0">
-        <v>-0.056029704281264969</v>
+        <v>-0.042770910746043</v>
       </c>
       <c r="B10" s="0">
-        <v>0.055982616397386664</v>
+        <v>0.042746989207032016</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="0">
-        <v>-0.051482616810947235</v>
+        <v>-0.038246989404260745</v>
       </c>
       <c r="B11" s="0">
-        <v>0.051402655164114464</v>
+        <v>0.038210323829382276</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="0">
-        <v>-0.045402655587487573</v>
+        <v>-0.032210324030724102</v>
       </c>
       <c r="B12" s="0">
-        <v>0.045154029240604743</v>
+        <v>0.032107562486773933</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="0">
-        <v>-0.039154029671180091</v>
+        <v>-0.026107562690269148</v>
       </c>
       <c r="B13" s="0">
-        <v>0.039086370751001631</v>
+        <v>0.026082806341202414</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="0">
-        <v>-0.027086371215979455</v>
+        <v>-0.014082806559489569</v>
       </c>
       <c r="B14" s="0">
-        <v>0.027053712460856971</v>
+        <v>0.014072107697031377</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="0">
-        <v>-0.0210537128953181</v>
+        <v>-0.0080721079014569597</v>
       </c>
       <c r="B15" s="0">
-        <v>0.021028017959758394</v>
+        <v>0.0080642579935350511</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="0">
-        <v>-0.015028018395788934</v>
+        <v>-0.002064258198202662</v>
       </c>
       <c r="B16" s="0">
-        <v>0.015004468354339107</v>
+        <v>0.002051819690349177</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="0">
-        <v>-0.0090044687924235589</v>
+        <v>-0.0090046006164010706</v>
       </c>
       <c r="B17" s="0">
-        <v>0.0089999995452885173</v>
+        <v>0.0089999997879406379</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="0">
-        <v>-0.036110262098425494</v>
+        <v>-0.083930392437249424</v>
       </c>
       <c r="B18" s="0">
-        <v>0.036096522790206365</v>
+        <v>0.083854725218579063</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="0">
-        <v>-0.02709652318144995</v>
+        <v>-0.027096972347577353</v>
       </c>
       <c r="B19" s="0">
-        <v>0.027013629397491634</v>
+        <v>0.027014065757839045</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="0">
-        <v>-0.018013629792349661</v>
+        <v>-0.018014065951822644</v>
       </c>
       <c r="B20" s="0">
-        <v>0.01800424547873547</v>
+        <v>0.018004308536403002</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="0">
-        <v>-0.0090042458741406151</v>
+        <v>-0.0090043087306295178</v>
       </c>
       <c r="B21" s="0">
-        <v>0.0089999996041392194</v>
+        <v>0.0089999998056011776</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="0">
-        <v>-0.093932783406080134</v>
+        <v>-0.094773983165174158</v>
       </c>
       <c r="B22" s="0">
-        <v>0.093624640398063619</v>
+        <v>0.094465614726878755</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="0">
-        <v>-0.084624640795188277</v>
+        <v>-0.085465614920549271</v>
       </c>
       <c r="B23" s="0">
-        <v>0.084124839888029435</v>
+        <v>0.084966252751042859</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="0">
-        <v>-0.042124840468757974</v>
+        <v>-0.042966253025905843</v>
       </c>
       <c r="B24" s="0">
-        <v>0.041999999415878619</v>
+        <v>0.042841264841605664</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="0">
-        <v>-0.0731067888828143</v>
+        <v>-0.067766104266929972</v>
       </c>
       <c r="B25" s="0">
-        <v>0.073038330032364485</v>
+        <v>0.06769105038926071</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="0">
-        <v>-0.067038330432335869</v>
+        <v>-0.061691050582663109</v>
       </c>
       <c r="B26" s="0">
-        <v>0.066953987604527754</v>
+        <v>0.061602250838880934</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="0">
-        <v>-0.060953988006095194</v>
+        <v>-0.055602251032808248</v>
       </c>
       <c r="B27" s="0">
-        <v>0.060677421495509698</v>
+        <v>0.055326337939896497</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="0">
-        <v>-0.05467742190346403</v>
+        <v>-0.049326338136476799</v>
       </c>
       <c r="B28" s="0">
-        <v>0.054500210242157898</v>
+        <v>0.049156302286211151</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="0">
-        <v>-0.058748660444651435</v>
+        <v>-0.063009230961254659</v>
       </c>
       <c r="B29" s="0">
-        <v>0.058624580656418956</v>
+        <v>0.062787380935940718</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="0">
-        <v>-0.038624581146407877</v>
+        <v>-0.042787381168606142</v>
       </c>
       <c r="B30" s="0">
-        <v>0.038411584082170158</v>
+        <v>0.042663244261443189</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="0">
-        <v>-0.023411584549153375</v>
+        <v>-0.027663244484134708</v>
       </c>
       <c r="B31" s="0">
-        <v>0.02335043885953425</v>
+        <v>0.027642477481096606</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="0">
-        <v>-0.0060007500600907093</v>
+        <v>-0.0066424777183007322</v>
       </c>
       <c r="B32" s="0">
-        <v>0.0059999995804460582</v>
+        <v>0.0066262680789419548</v>
       </c>
     </row>
   </sheetData>
